--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Merton_Chickering/Arthur_Merton_Chickering.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Merton_Chickering/Arthur_Merton_Chickering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Merton Chickering est un zoologiste américain, né le 23 mars 1887 à Vermont et mort le 24 mai 1974 à Keene dans le New Hampshire.
 Il étudie à l’université Yale où il obtient son Bachelor of Sciences en 1913 et où il suit les cours d’Alexander Petrunkevitch (1875-1964). En 1916, il obtient son Master of Sciences à l’université du Wisconsin et en 1927 son Ph. D. à l’université du Michigan ; il étudie dans sa thèse la cytologie des insectes. Il enseigne à l’Albion College de 1918 jusqu’à sa retraite en 1957. À partir de 1953, il est chercheur associé au Museum of Comparative Zoology. Il doit interrompre ses recherches en 1971, sa santé se dégradant.
